--- a/scripts/Conversions_and_PP_Ecopath_Check.xlsx
+++ b/scripts/Conversions_and_PP_Ecopath_Check.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greig\Sync\6. SSMSP Model\Model Greig\Data\28. Phytoplankton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greig\Documents\GitHub\Ecosystem-Model-Data-Framework\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43A158A-5F00-487E-885B-219FC61B16CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B729E53-89E9-4478-8BD1-3EAE2C864BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{E5E85448-0EE4-4C61-B594-292693273E87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E5E85448-0EE4-4C61-B594-292693273E87}"/>
   </bookViews>
   <sheets>
-    <sheet name="c and chl to ww  vol" sheetId="1" r:id="rId1"/>
-    <sheet name="cross checks convers" sheetId="2" r:id="rId2"/>
+    <sheet name="2025 redone carbon only" sheetId="3" r:id="rId1"/>
+    <sheet name="c and chl to ww  vol" sheetId="1" r:id="rId2"/>
+    <sheet name="cross checks convers" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="179">
   <si>
     <t>Basic</t>
   </si>
@@ -569,6 +570,102 @@
   </si>
   <si>
     <t>should be 43 - 86 yr</t>
+  </si>
+  <si>
+    <t>Model Phyto and Mixo</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>rough mcewan</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Simplying the other messy spreadsheet</t>
+  </si>
+  <si>
+    <t>B (g C m-2)</t>
+  </si>
+  <si>
+    <t>McEwan, Nicole, Rich Pawlowicz, Evgeny Pakhomov, and Maria T. Maldonado. “Seasonality of Modelled Planktonic Food Web Structure in the Strait of Georgia, Canada.” Ecological Modelling 482 (August 2023): 110402. https://doi.org/10.1016/j.ecolmodel.2023.110402.</t>
+  </si>
+  <si>
+    <t>McEwan created three seasonal models, omitting Fall. I therefore digitised and used the raw survey data which did indicate biomass a bit higher (it includes some fall samples)</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>C:\Users\Greig\Sync\6. SSMSP Model\Model Greig\Data\28. Phytoplankton\PhytoplanktonCommunity_McEwanSupp2023_\MODIFIED</t>
+  </si>
+  <si>
+    <t>REFERENCE STANDING STOCK PHYO B</t>
+  </si>
+  <si>
+    <t>PB (yr-1)</t>
+  </si>
+  <si>
+    <t>PB (3-day^-1)</t>
+  </si>
+  <si>
+    <t>McEwan model and data</t>
+  </si>
+  <si>
+    <t>from average of seasonal models</t>
+  </si>
+  <si>
+    <t>PZ2-PZ3-DIN</t>
+  </si>
+  <si>
+    <t>For figure, combining PZ2 and PZ3, since reference doesn't differentiate</t>
+  </si>
+  <si>
+    <t>comparison</t>
+  </si>
+  <si>
+    <t>Metrics I decided not to use</t>
+  </si>
+  <si>
+    <t>Model Baseline</t>
+  </si>
+  <si>
+    <t>PP % Mixotrophy</t>
+  </si>
+  <si>
+    <t>Annual PP</t>
+  </si>
+  <si>
+    <t>my initial estimate was substantially lower than McEwans</t>
+  </si>
+  <si>
+    <t>Being the main empirical and modelled dataset for comparison, I adjusted the estimate</t>
+  </si>
+  <si>
+    <t>Initially I adjusted DIA B from 1.57 to 3 but the annualised PP was very high (McEwans is even higher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I therefore justified reducing DIA B to 2.307 after noting that the C:Chl-a of 50 was used for all groups in McEwan when converting from chemtax HPLC </t>
+  </si>
+  <si>
+    <t>Based on Burt et al (2018) the true DIA C:Chl-a would be closer to 40 and thus 50 is 1.25x the 'true' value</t>
+  </si>
+  <si>
+    <t>Thus I reduced from 3 gC m-2 to 2.307 using 3  / 1.25</t>
+  </si>
+  <si>
+    <t>fr supp fig</t>
+  </si>
+  <si>
+    <t>% of total B PP</t>
+  </si>
+  <si>
+    <t>Total B PP</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -639,15 +736,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -696,6 +805,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -703,7 +849,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -779,9 +925,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -790,6 +933,26 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -809,6 +972,2471 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> with McEwan's data and model averages</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2025 redone carbon only'!$S$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PZ1-CIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2025 redone carbon only'!$R$25:$R$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>model</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>McEwan model and data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2025 redone carbon only'!$S$25:$S$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA82-4319-8AE6-DEEAE021382E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2025 redone carbon only'!$T$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PZ2-PZ3-DIN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2025 redone carbon only'!$R$25:$R$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>model</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>McEwan model and data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2025 redone carbon only'!$T$25:$T$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA82-4319-8AE6-DEEAE021382E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2025 redone carbon only'!$U$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PP1-DIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2025 redone carbon only'!$R$25:$R$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>model</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>McEwan model and data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2025 redone carbon only'!$U$25:$U$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FA82-4319-8AE6-DEEAE021382E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2025 redone carbon only'!$V$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PP2-NAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2025 redone carbon only'!$R$25:$R$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>model</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>McEwan model and data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2025 redone carbon only'!$V$25:$V$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FA82-4319-8AE6-DEEAE021382E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2025 redone carbon only'!$W$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PP3-PIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2025 redone carbon only'!$R$25:$R$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>model</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>McEwan model and data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2025 redone carbon only'!$W$25:$W$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FA82-4319-8AE6-DEEAE021382E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2025 redone carbon only'!$X$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BA1-BAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2025 redone carbon only'!$R$25:$R$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>model</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>McEwan model and data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2025 redone carbon only'!$X$25:$X$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FA82-4319-8AE6-DEEAE021382E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="200442752"/>
+        <c:axId val="200445632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="200442752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200445632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200445632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200442752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cross checks convers'!$AE$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PZ1-CIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cross checks convers'!$AD$5:$AD$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Model Phyto and Mixo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rough mcewan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cross checks convers'!$AE$5:$AE$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.1020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2273-451E-8179-988A71000881}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cross checks convers'!$AF$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PZ2-DIN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cross checks convers'!$AD$5:$AD$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Model Phyto and Mixo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rough mcewan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cross checks convers'!$AF$5:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.86999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2273-451E-8179-988A71000881}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cross checks convers'!$AG$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PZ3-HNF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cross checks convers'!$AD$5:$AD$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Model Phyto and Mixo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rough mcewan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cross checks convers'!$AG$5:$AG$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.40600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2273-451E-8179-988A71000881}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cross checks convers'!$AH$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PP1-DIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cross checks convers'!$AD$5:$AD$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Model Phyto and Mixo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rough mcewan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cross checks convers'!$AH$5:$AH$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.5659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2273-451E-8179-988A71000881}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cross checks convers'!$AI$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PP2-NAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cross checks convers'!$AD$5:$AD$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Model Phyto and Mixo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rough mcewan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cross checks convers'!$AI$5:$AI$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2273-451E-8179-988A71000881}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cross checks convers'!$AJ$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PP3-PIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cross checks convers'!$AD$5:$AD$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Model Phyto and Mixo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rough mcewan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cross checks convers'!$AJ$5:$AJ$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2273-451E-8179-988A71000881}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cross checks convers'!$AK$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BA1-BAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cross checks convers'!$AD$5:$AD$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Model Phyto and Mixo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rough mcewan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cross checks convers'!$AK$5:$AK$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2273-451E-8179-988A71000881}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="69462448"/>
+        <c:axId val="69458608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="69462448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69458608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69458608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69462448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D2320A-E8C3-9AD1-6AE9-8E4C3314B593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38D085E-275B-612E-5CAE-EF5D69D97C96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1107,42 +3735,567 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1265F5B-FB75-40C3-85EF-78DB96733E55}">
+  <dimension ref="A1:Y29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>141</v>
+      </c>
+      <c r="U3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <f>D14/(D14+D13)</f>
+        <v>0.44162436548223344</v>
+      </c>
+      <c r="U4">
+        <f>D16/(D16+D14)</f>
+        <v>0.7339449541284403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <f>ROUND(E13*10,1)</f>
+        <v>90</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <f>G13*D13</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="I13" s="9">
+        <f>H13/$H$21</f>
+        <v>2.4719101123595509E-2</v>
+      </c>
+      <c r="J13">
+        <f>D13*F13*G13</f>
+        <v>9.9000000000000021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F19" si="0">ROUND(E14*10,1)</f>
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H19" si="1">G14*D14</f>
+        <v>8.7000000000000008E-2</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" ref="I14:I19" si="2">H14/$H$21</f>
+        <v>1.9550561797752809E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J19" si="3">D14*F14*G14</f>
+        <v>4.3500000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="46">
+        <f>3/1.25</f>
+        <v>2.4</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="2"/>
+        <v>0.5393258426966292</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="2"/>
+        <v>0.33707865168539325</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="S17" t="s">
+        <v>118</v>
+      </c>
+      <c r="T17" t="s">
+        <v>109</v>
+      </c>
+      <c r="U17" t="s">
+        <v>110</v>
+      </c>
+      <c r="V17" t="s">
+        <v>130</v>
+      </c>
+      <c r="W17" t="s">
+        <v>131</v>
+      </c>
+      <c r="X17" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="2"/>
+        <v>7.8651685393258425E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="R18" t="s">
+        <v>155</v>
+      </c>
+      <c r="S18">
+        <f>D13</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T18">
+        <f>D14</f>
+        <v>0.87</v>
+      </c>
+      <c r="U18">
+        <f>D15</f>
+        <v>0.46</v>
+      </c>
+      <c r="V18">
+        <f>D16</f>
+        <v>2.4</v>
+      </c>
+      <c r="W18">
+        <f>D17</f>
+        <v>1.5</v>
+      </c>
+      <c r="X18">
+        <f>D18</f>
+        <v>0.35</v>
+      </c>
+      <c r="Y18">
+        <f>D19</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="S19" s="39">
+        <v>0.76</v>
+      </c>
+      <c r="T19" s="40">
+        <f>1.53/2</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="U19" s="41">
+        <f>1.53/2</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="V19" s="42">
+        <v>3</v>
+      </c>
+      <c r="W19" s="43">
+        <v>1.64</v>
+      </c>
+      <c r="X19" s="44">
+        <v>0.3</v>
+      </c>
+      <c r="Y19" s="45">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="T20" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="W20" s="48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C21" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="4">
+        <f>ROUND(SUM(D16:D18),2)</f>
+        <v>4.25</v>
+      </c>
+      <c r="H21" s="4">
+        <f>ROUND(SUM(H13:H19),2)</f>
+        <v>4.45</v>
+      </c>
+      <c r="J21" s="4">
+        <f>ROUND(SUM(J13:J19),1)</f>
+        <v>397.8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="U22" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D24" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="R24" t="s">
+        <v>164</v>
+      </c>
+      <c r="S24" t="s">
+        <v>118</v>
+      </c>
+      <c r="T24" t="s">
+        <v>162</v>
+      </c>
+      <c r="U24" t="s">
+        <v>130</v>
+      </c>
+      <c r="V24" t="s">
+        <v>131</v>
+      </c>
+      <c r="W24" t="s">
+        <v>132</v>
+      </c>
+      <c r="X24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>170</v>
+      </c>
+      <c r="R25" t="s">
+        <v>155</v>
+      </c>
+      <c r="S25">
+        <f>S18</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T25">
+        <f>U18+T18</f>
+        <v>1.33</v>
+      </c>
+      <c r="U25">
+        <f>V18</f>
+        <v>2.4</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ref="V25:X26" si="4">W18</f>
+        <v>1.5</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="4"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>171</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="S26">
+        <f>S19</f>
+        <v>0.76</v>
+      </c>
+      <c r="T26">
+        <f>T19+U19</f>
+        <v>1.53</v>
+      </c>
+      <c r="U26">
+        <f>V19</f>
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="4"/>
+        <v>1.64</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="4"/>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S12" r:id="rId1" display="https://doi.org/10.1016/j.ecolmodel.2023.110402" xr:uid="{DE54001D-3B3D-4A8B-A4EE-1BD550CE32FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39799A1-E7D8-44DA-B850-5A6129E401FC}">
   <dimension ref="B2:N118"/>
   <sheetViews>
-    <sheetView topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" customWidth="1"/>
-    <col min="6" max="6" width="39.08984375" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" customWidth="1"/>
-    <col min="9" max="9" width="16.26953125" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" customWidth="1"/>
-    <col min="11" max="11" width="19.453125" customWidth="1"/>
-    <col min="12" max="12" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +4305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1168,7 +4321,7 @@
         <v>31622.77660168384</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <v>1</v>
       </c>
@@ -1183,7 +4336,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1191,14 +4344,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1225,7 +4378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <v>1</v>
       </c>
@@ -1260,7 +4413,7 @@
         <v>3.2900310752470587</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1291,12 +4444,12 @@
         <v>13.016673155792642</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1304,7 +4457,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G18">
         <f t="shared" ref="G18:K18" si="0">AVERAGE(G14:G15)</f>
         <v>3.85</v>
@@ -1330,19 +4483,19 @@
         <v>8.1533521155198496</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="9"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F20" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>71</v>
       </c>
@@ -1365,7 +4518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F22" s="10" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +4546,7 @@
         <v>7.362070974947363</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F23" s="10" t="s">
         <v>6</v>
       </c>
@@ -1421,7 +4574,7 @@
         <v>17.660378206861605</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F24" s="10" t="s">
         <v>72</v>
       </c>
@@ -1450,7 +4603,7 @@
         <v>12.511224590904483</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F25" s="10"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1459,7 +4612,7 @@
       <c r="K25" s="25"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F26" s="4" t="s">
         <v>73</v>
       </c>
@@ -1470,7 +4623,7 @@
       <c r="K26" s="25"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>74</v>
       </c>
@@ -1493,7 +4646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F28" s="10" t="s">
         <v>5</v>
       </c>
@@ -1521,7 +4674,7 @@
         <v>3.1397856482728201</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F29" s="10" t="s">
         <v>6</v>
       </c>
@@ -1549,7 +4702,7 @@
         <v>9.7948998540869727</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F30" s="10" t="s">
         <v>72</v>
       </c>
@@ -1578,27 +4731,27 @@
         <v>6.4673427511798964</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F32" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G36" s="3" t="s">
         <v>63</v>
       </c>
@@ -1618,7 +4771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>15</v>
       </c>
@@ -1646,7 +4799,7 @@
         <v>12.416523075924109</v>
       </c>
     </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>14</v>
       </c>
@@ -1674,14 +4827,14 @@
         <v>87.297136838811014</v>
       </c>
     </row>
-    <row r="39" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
       <c r="H39" s="2"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>64</v>
       </c>
@@ -1691,7 +4844,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G41" s="2">
         <f>AVERAGE(G37:G38)</f>
         <v>3.75</v>
@@ -1717,7 +4870,7 @@
         <v>49.856829957367559</v>
       </c>
     </row>
-    <row r="42" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="5"/>
@@ -1725,17 +4878,17 @@
       <c r="K42" s="14"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F43" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G45" s="3" t="s">
         <v>63</v>
       </c>
@@ -1755,7 +4908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>15</v>
       </c>
@@ -1783,7 +4936,7 @@
         <v>5.3456435939697151</v>
       </c>
     </row>
-    <row r="47" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>14</v>
       </c>
@@ -1811,14 +4964,14 @@
         <v>25.003453616964286</v>
       </c>
     </row>
-    <row r="48" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="6:12" x14ac:dyDescent="0.25">
       <c r="H48" s="2"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
         <v>64</v>
       </c>
@@ -1828,7 +4981,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G50" s="2">
         <f t="shared" ref="G50:L50" si="3">AVERAGE(G46:G47)</f>
         <v>4.5</v>
@@ -1854,17 +5007,17 @@
         <v>15.174548605467001</v>
       </c>
     </row>
-    <row r="52" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G54" s="3" t="s">
         <v>63</v>
       </c>
@@ -1884,7 +5037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F55" s="10" t="s">
         <v>52</v>
       </c>
@@ -1912,7 +5065,7 @@
         <v>8.2985076751442239</v>
       </c>
     </row>
-    <row r="56" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F56" s="10" t="s">
         <v>53</v>
       </c>
@@ -1940,7 +5093,7 @@
         <v>73.113908348341653</v>
       </c>
     </row>
-    <row r="57" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:14" x14ac:dyDescent="0.25">
       <c r="K57" s="33">
         <f>AVERAGE(K55:K56)</f>
         <v>6.7090441146569132E-2</v>
@@ -1950,12 +5103,12 @@
         <v>40.706208011742937</v>
       </c>
     </row>
-    <row r="58" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>80</v>
       </c>
@@ -1978,7 +5131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F60" s="10" t="s">
         <v>52</v>
       </c>
@@ -2006,7 +5159,7 @@
         <v>7.5231548318687151</v>
       </c>
     </row>
-    <row r="61" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F61" s="10" t="s">
         <v>53</v>
       </c>
@@ -2034,7 +5187,7 @@
         <v>5.440013782467271</v>
       </c>
     </row>
-    <row r="62" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F62" s="10" t="s">
         <v>72</v>
       </c>
@@ -2063,7 +5216,7 @@
         <v>6.4815843071679931</v>
       </c>
     </row>
-    <row r="63" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
         <v>76</v>
       </c>
@@ -2071,7 +5224,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
         <v>79</v>
       </c>
@@ -2098,7 +5251,7 @@
         <v>9.1463126700491646</v>
       </c>
     </row>
-    <row r="65" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F65" s="10" t="s">
         <v>52</v>
       </c>
@@ -2126,7 +5279,7 @@
         <v>21.024225208252449</v>
       </c>
     </row>
-    <row r="66" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F66" s="10" t="s">
         <v>53</v>
       </c>
@@ -2157,7 +5310,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="6:14" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F67" s="10" t="s">
         <v>72</v>
       </c>
@@ -2190,19 +5343,19 @@
         <v>0.12759712274894427</v>
       </c>
     </row>
-    <row r="68" spans="6:14" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F68" s="10"/>
       <c r="I68" s="26"/>
       <c r="J68" s="26"/>
       <c r="K68" s="28"/>
       <c r="L68" s="26"/>
     </row>
-    <row r="69" spans="6:14" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="6:14" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
         <v>78</v>
       </c>
@@ -2225,7 +5378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="6:14" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F71" s="10" t="s">
         <v>52</v>
       </c>
@@ -2253,7 +5406,7 @@
         <v>5.4802453217685061</v>
       </c>
     </row>
-    <row r="72" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F72" s="10" t="s">
         <v>53</v>
       </c>
@@ -2281,7 +5434,7 @@
         <v>8.3406519740866312</v>
       </c>
     </row>
-    <row r="73" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F73" s="10" t="s">
         <v>72</v>
       </c>
@@ -2310,19 +5463,19 @@
         <v>6.9104486479275682</v>
       </c>
     </row>
-    <row r="74" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F74" s="10"/>
       <c r="I74" s="26"/>
       <c r="J74" s="26"/>
       <c r="K74" s="28"/>
       <c r="L74" s="26"/>
     </row>
-    <row r="75" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
         <v>82</v>
       </c>
@@ -2345,7 +5498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F77" s="10" t="s">
         <v>52</v>
       </c>
@@ -2373,7 +5526,7 @@
         <v>6.5117842054618089</v>
       </c>
     </row>
-    <row r="78" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F78" s="10" t="s">
         <v>53</v>
       </c>
@@ -2401,7 +5554,7 @@
         <v>9.4471323572713573</v>
       </c>
     </row>
-    <row r="79" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F79" s="10" t="s">
         <v>72</v>
       </c>
@@ -2430,14 +5583,14 @@
         <v>7.9794582813665826</v>
       </c>
     </row>
-    <row r="80" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F80" s="10"/>
       <c r="I80" s="26"/>
       <c r="J80" s="26"/>
       <c r="K80" s="28"/>
       <c r="L80" s="26"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -2445,36 +5598,36 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F83" s="10"/>
       <c r="I83" s="26"/>
       <c r="J83" s="26"/>
       <c r="K83" s="28"/>
       <c r="L83" s="26"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F84" s="10"/>
       <c r="I84" s="26"/>
       <c r="J84" s="26"/>
       <c r="K84" s="28"/>
       <c r="L84" s="26"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F85" s="10"/>
       <c r="I85" s="26"/>
       <c r="J85" s="26"/>
       <c r="K85" s="28"/>
       <c r="L85" s="26"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C86" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C88" s="7" t="s">
         <v>21</v>
       </c>
@@ -2482,25 +5635,25 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C89" s="4"/>
       <c r="D89" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C90" s="4"/>
       <c r="D90" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C91" s="4"/>
       <c r="D91" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C92" s="4"/>
       <c r="D92" t="s">
         <v>32</v>
@@ -2512,7 +5665,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C93" s="4"/>
       <c r="F93" s="10" t="s">
         <v>37</v>
@@ -2521,7 +5674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C94" s="4"/>
       <c r="F94" t="s">
         <v>38</v>
@@ -2537,7 +5690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C95" s="4"/>
       <c r="F95" t="s">
         <v>34</v>
@@ -2552,7 +5705,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C96" s="4"/>
       <c r="F96" t="s">
         <v>39</v>
@@ -2569,7 +5722,7 @@
         <v>1089000000000000</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C97" s="4"/>
       <c r="F97" t="s">
         <v>42</v>
@@ -2585,7 +5738,7 @@
         <v>5989500000000000</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C98" s="4"/>
       <c r="F98" t="s">
         <v>35</v>
@@ -2602,7 +5755,7 @@
         <v>5.9894999999999996</v>
       </c>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C99" s="4"/>
       <c r="F99" t="s">
         <v>36</v>
@@ -2612,7 +5765,7 @@
         <v>641672707638.72046</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C100" s="4"/>
       <c r="F100" t="s">
         <v>40</v>
@@ -2622,7 +5775,7 @@
         <v>1.3167123960746544E+16</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C101" s="4"/>
       <c r="F101" t="s">
         <v>41</v>
@@ -2632,20 +5785,20 @@
         <v>13.167123960746544</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F106" s="8" t="s">
         <v>20</v>
       </c>
@@ -2660,7 +5813,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
         <v>24</v>
       </c>
@@ -2679,7 +5832,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
         <v>18</v>
       </c>
@@ -2695,7 +5848,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
         <v>25</v>
       </c>
@@ -2706,7 +5859,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
         <v>22</v>
       </c>
@@ -2714,7 +5867,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
         <v>26</v>
       </c>
@@ -2723,7 +5876,7 @@
         <v>2.4457322387019725E-2</v>
       </c>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
         <v>27</v>
       </c>
@@ -2732,7 +5885,7 @@
         <v>0.12188347419856727</v>
       </c>
     </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
         <v>28</v>
       </c>
@@ -2741,7 +5894,7 @@
         <v>40.887550328515587</v>
       </c>
     </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F118" t="s">
         <v>29</v>
       </c>
@@ -2760,28 +5913,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A41AE6-4614-4920-9289-6CC27200F424}">
-  <dimension ref="A2:AA58"/>
+  <dimension ref="A2:AK58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" customWidth="1"/>
-    <col min="13" max="13" width="15.6328125" customWidth="1"/>
-    <col min="14" max="14" width="14.453125" customWidth="1"/>
-    <col min="16" max="16" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -2792,7 +5945,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -2800,7 +5953,33 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AD4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>85</v>
       </c>
@@ -2846,8 +6025,32 @@
       <c r="U5" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AD5" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE5">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="AF5">
+        <v>0.86999999999999988</v>
+      </c>
+      <c r="AG5">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AH5">
+        <v>1.5659999999999998</v>
+      </c>
+      <c r="AI5">
+        <v>1.276</v>
+      </c>
+      <c r="AJ5">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="AK5">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -2880,11 +6083,11 @@
         <v>40.706208011742937</v>
       </c>
       <c r="N6" s="6">
-        <f>$B$2*K6/100*M6</f>
+        <f t="shared" ref="N6:N13" si="0">$B$2*K6/100*M6</f>
         <v>63.745921746389435</v>
       </c>
       <c r="O6" s="27">
-        <f>N6/$N$16</f>
+        <f t="shared" ref="O6:O13" si="1">N6/$N$16</f>
         <v>0.64866690469524335</v>
       </c>
       <c r="R6" t="s">
@@ -2902,9 +6105,33 @@
         <f>O9</f>
         <v>6.6161134162067606E-2</v>
       </c>
-      <c r="X6" s="36"/>
-    </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X6" s="35"/>
+      <c r="AD6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>0.5</v>
+      </c>
+      <c r="AG6">
+        <v>0.5</v>
+      </c>
+      <c r="AH6">
+        <v>0.5</v>
+      </c>
+      <c r="AI6">
+        <v>0.5</v>
+      </c>
+      <c r="AJ6">
+        <v>0.5</v>
+      </c>
+      <c r="AK6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>101</v>
       </c>
@@ -2929,7 +6156,7 @@
         <v>13</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L13" si="0">$B$2*K7/100</f>
+        <f t="shared" ref="L7:L13" si="2">$B$2*K7/100</f>
         <v>0.75399999999999989</v>
       </c>
       <c r="M7" s="34">
@@ -2937,11 +6164,11 @@
         <v>12.511224590904483</v>
       </c>
       <c r="N7" s="6">
-        <f>$B$2*K7/100*M7</f>
+        <f t="shared" si="0"/>
         <v>9.4334633415419784</v>
       </c>
       <c r="O7" s="27">
-        <f>N7/$N$16</f>
+        <f t="shared" si="1"/>
         <v>9.5993207073841902E-2</v>
       </c>
       <c r="R7" t="s">
@@ -2959,9 +6186,9 @@
         <f>O8+O7</f>
         <v>0.10362722547585597</v>
       </c>
-      <c r="X7" s="37"/>
-    </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X7" s="36"/>
+    </row>
+    <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J8" t="s">
         <v>87</v>
       </c>
@@ -2969,7 +6196,7 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11599999999999999</v>
       </c>
       <c r="M8" s="12">
@@ -2977,11 +6204,11 @@
         <v>6.4673427511798964</v>
       </c>
       <c r="N8" s="6">
-        <f>$B$2*K8/100*M8</f>
+        <f t="shared" si="0"/>
         <v>0.75021175913686788</v>
       </c>
       <c r="O8" s="27">
-        <f>N8/$N$16</f>
+        <f t="shared" si="1"/>
         <v>7.6340184020140664E-3</v>
       </c>
       <c r="R8" t="s">
@@ -2999,9 +6226,9 @@
         <f>O10</f>
         <v>5.7839350114920828E-2</v>
       </c>
-      <c r="X8" s="37"/>
-    </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X8" s="36"/>
+    </row>
+    <row r="9" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>88</v>
       </c>
@@ -3009,18 +6236,18 @@
         <v>19</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1020000000000001</v>
       </c>
       <c r="M9">
         <v>5.9</v>
       </c>
       <c r="N9" s="6">
-        <f>$B$2*K9/100*M9</f>
+        <f t="shared" si="0"/>
         <v>6.5018000000000011</v>
       </c>
       <c r="O9" s="27">
-        <f>N9/$N$16</f>
+        <f t="shared" si="1"/>
         <v>6.6161134162067606E-2</v>
       </c>
       <c r="R9" t="s">
@@ -3038,9 +6265,9 @@
         <f>O6</f>
         <v>0.64866690469524335</v>
       </c>
-      <c r="X9" s="37"/>
-    </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X9" s="36"/>
+    </row>
+    <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F10">
         <f>SUM(F6:F7)</f>
         <v>93.147999999999996</v>
@@ -3052,18 +6279,18 @@
         <v>7</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40600000000000003</v>
       </c>
       <c r="M10">
         <v>14</v>
       </c>
       <c r="N10" s="6">
-        <f>$B$2*K10/100*M10</f>
+        <f t="shared" si="0"/>
         <v>5.6840000000000002</v>
       </c>
       <c r="O10" s="27">
-        <f>N10/$N$16</f>
+        <f t="shared" si="1"/>
         <v>5.7839350114920828E-2</v>
       </c>
       <c r="R10" t="s">
@@ -3074,16 +6301,16 @@
         <v>1.276</v>
       </c>
       <c r="T10" s="12">
-        <f>N11</f>
+        <f t="shared" ref="T10:U12" si="3">N11</f>
         <v>9.8252000000000006</v>
       </c>
       <c r="U10" s="9">
-        <f>O11</f>
+        <f t="shared" si="3"/>
         <v>9.9979448055791717E-2</v>
       </c>
-      <c r="X10" s="37"/>
-    </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X10" s="36"/>
+    </row>
+    <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J11" t="s">
         <v>89</v>
       </c>
@@ -3091,18 +6318,18 @@
         <v>22</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.276</v>
       </c>
       <c r="M11" s="12">
         <v>7.7</v>
       </c>
       <c r="N11" s="6">
-        <f>$B$2*K11/100*M11</f>
+        <f t="shared" si="0"/>
         <v>9.8252000000000006</v>
       </c>
       <c r="O11" s="27">
-        <f>N11/$N$16</f>
+        <f t="shared" si="1"/>
         <v>9.9979448055791717E-2</v>
       </c>
       <c r="R11" t="s">
@@ -3113,16 +6340,17 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="T11" s="12">
-        <f>N12</f>
+        <f t="shared" si="3"/>
         <v>1.4963999999999997</v>
       </c>
       <c r="U11" s="9">
-        <f>O12</f>
+        <f t="shared" si="3"/>
         <v>1.5227094213928132E-2</v>
       </c>
-      <c r="X11" s="37"/>
-    </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X11" s="36"/>
+      <c r="AE11" s="10"/>
+    </row>
+    <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
         <v>90</v>
       </c>
@@ -3130,18 +6358,18 @@
         <v>6</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.34799999999999998</v>
       </c>
       <c r="M12">
         <v>4.3</v>
       </c>
       <c r="N12" s="6">
-        <f>$B$2*K12/100*M12</f>
+        <f t="shared" si="0"/>
         <v>1.4963999999999997</v>
       </c>
       <c r="O12" s="27">
-        <f>N12/$N$16</f>
+        <f t="shared" si="1"/>
         <v>1.5227094213928132E-2</v>
       </c>
       <c r="R12" t="s">
@@ -3152,16 +6380,16 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="T12" s="12">
-        <f>N13</f>
+        <f t="shared" si="3"/>
         <v>0.83519999999999994</v>
       </c>
       <c r="U12" s="9">
-        <f>O13</f>
+        <f t="shared" si="3"/>
         <v>8.4988432821924472E-3</v>
       </c>
-      <c r="X12" s="38"/>
-    </row>
-    <row r="13" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="X12" s="37"/>
+    </row>
+    <row r="13" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>91</v>
       </c>
@@ -3169,18 +6397,18 @@
         <v>3</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.17399999999999999</v>
       </c>
       <c r="M13">
         <v>4.8</v>
       </c>
       <c r="N13" s="6">
-        <f>$B$2*K13/100*M13</f>
+        <f t="shared" si="0"/>
         <v>0.83519999999999994</v>
       </c>
       <c r="O13" s="27">
-        <f>N13/$N$16</f>
+        <f t="shared" si="1"/>
         <v>8.4988432821924472E-3</v>
       </c>
       <c r="R13" t="s">
@@ -3191,21 +6419,21 @@
         <v>5.742</v>
       </c>
       <c r="T13" s="6">
-        <f t="shared" ref="T13:U13" si="1">SUM(T6:T12)</f>
+        <f t="shared" ref="T13:U13" si="4">SUM(T6:T12)</f>
         <v>98.272196847068273</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="O14" s="31">
         <f>SUM(O6:O13)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>135</v>
       </c>
@@ -3228,7 +6456,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:22" x14ac:dyDescent="0.25">
       <c r="R17" t="s">
         <v>141</v>
       </c>
@@ -3236,7 +6464,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:22" x14ac:dyDescent="0.25">
       <c r="R18">
         <f>T7/(T6+T7)</f>
         <v>0.61033174298192583</v>
@@ -3246,17 +6474,17 @@
         <v>0.86225171602457229</v>
       </c>
     </row>
-    <row r="20" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:22" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>107</v>
       </c>
@@ -3264,7 +6492,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:22" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>400</v>
       </c>
@@ -3278,7 +6506,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:22" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>108</v>
       </c>
@@ -3305,12 +6533,12 @@
         <v>7532.898750142338</v>
       </c>
     </row>
-    <row r="26" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:22" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>21</v>
       </c>
       <c r="H26">
-        <f>$G$24*1/K6*M6</f>
+        <f t="shared" ref="H26:H33" si="5">$G$24*1/K6*M6</f>
         <v>603.05493350730274</v>
       </c>
       <c r="K26" t="s">
@@ -3347,12 +6575,12 @@
         <v>76.736069256457313</v>
       </c>
     </row>
-    <row r="27" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:22" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>86</v>
       </c>
       <c r="H27">
-        <f>$G$24*1/K7*M7</f>
+        <f t="shared" si="5"/>
         <v>384.96075664321489</v>
       </c>
       <c r="K27" t="s">
@@ -3362,14 +6590,14 @@
         <v>0.1</v>
       </c>
       <c r="M27" s="12">
-        <f t="shared" ref="M27:M31" si="2">T7</f>
+        <f t="shared" ref="M27:M31" si="6">T7</f>
         <v>10.183675100678846</v>
       </c>
       <c r="N27">
         <v>50</v>
       </c>
       <c r="O27">
-        <f t="shared" ref="O27:O32" si="3">L27*M27*N27</f>
+        <f t="shared" ref="O27:O32" si="7">L27*M27*N27</f>
         <v>50.91837550339423</v>
       </c>
       <c r="P27">
@@ -3377,11 +6605,11 @@
         <v>7.9928227067955326E-2</v>
       </c>
       <c r="Q27">
-        <f t="shared" ref="Q27:Q32" si="4">O27*P27</f>
+        <f t="shared" ref="Q27:Q32" si="8">O27*P27</f>
         <v>4.0698154791667083</v>
       </c>
       <c r="R27">
-        <f t="shared" ref="R27:R32" si="5">(1-L27)*M27*N27*P27</f>
+        <f t="shared" ref="R27:R32" si="9">(1-L27)*M27*N27*P27</f>
         <v>36.628339312500373</v>
       </c>
       <c r="U27" s="4">
@@ -3392,12 +6620,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:22" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>87</v>
       </c>
       <c r="H28">
-        <f>$G$24*1/K8*M8</f>
+        <f t="shared" si="5"/>
         <v>1293.4685502359794</v>
       </c>
       <c r="K28" t="s">
@@ -3407,14 +6635,14 @@
         <v>0</v>
       </c>
       <c r="M28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.6840000000000002</v>
       </c>
       <c r="N28">
         <v>80</v>
       </c>
       <c r="O28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P28">
@@ -3422,20 +6650,20 @@
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>32.479999999999997</v>
       </c>
     </row>
-    <row r="29" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:22" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>88</v>
       </c>
       <c r="H29">
-        <f>$G$24*1/K9*M9</f>
+        <f t="shared" si="5"/>
         <v>124.21052631578949</v>
       </c>
       <c r="K29" t="s">
@@ -3445,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>63.745921746389435</v>
       </c>
       <c r="N29">
@@ -3460,7 +6688,7 @@
         <v>2.4566277451132754E-2</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>156.59999999999997</v>
       </c>
       <c r="R29">
@@ -3468,12 +6696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:22" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>104</v>
       </c>
       <c r="H30">
-        <f>$G$24*1/K10*M10</f>
+        <f t="shared" si="5"/>
         <v>800</v>
       </c>
       <c r="K30" t="s">
@@ -3483,7 +6711,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.8252000000000006</v>
       </c>
       <c r="N30">
@@ -3498,7 +6726,7 @@
         <v>0.12987012987012986</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>114.83999999999999</v>
       </c>
       <c r="R30">
@@ -3506,12 +6734,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:22" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>89</v>
       </c>
       <c r="H31">
-        <f>$G$24*1/K11*M11</f>
+        <f t="shared" si="5"/>
         <v>140.00000000000003</v>
       </c>
       <c r="K31" t="s">
@@ -3521,14 +6749,14 @@
         <v>1</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.4963999999999997</v>
       </c>
       <c r="N31">
         <v>110</v>
       </c>
       <c r="O31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>164.60399999999996</v>
       </c>
       <c r="P31">
@@ -3536,20 +6764,20 @@
         <v>0.23255813953488372</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>38.279999999999987</v>
       </c>
       <c r="R31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:22" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>90</v>
       </c>
       <c r="H32">
-        <f>$G$24*1/K12*M12</f>
+        <f t="shared" si="5"/>
         <v>286.66666666666669</v>
       </c>
       <c r="K32" t="s">
@@ -3566,7 +6794,7 @@
         <v>140</v>
       </c>
       <c r="O32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P32">
@@ -3574,24 +6802,24 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>24.36</v>
       </c>
     </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>91</v>
       </c>
       <c r="H33">
-        <f>$G$24*1/K13*M13</f>
+        <f t="shared" si="5"/>
         <v>640</v>
       </c>
     </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
       <c r="L34" t="s">
         <v>125</v>
       </c>
@@ -3603,7 +6831,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
       <c r="H35">
         <f>SUM(H26:H32)</f>
         <v>3632.3614333689529</v>
@@ -3621,7 +6849,7 @@
         <v>182.7303393125004</v>
       </c>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
       <c r="O37" t="s">
         <v>124</v>
       </c>
@@ -3630,7 +6858,7 @@
         <v>0.56449158955898193</v>
       </c>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>90</v>
       </c>
@@ -3646,21 +6874,21 @@
         <v>7.5253048691275026E-2</v>
       </c>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>50</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:E44" si="6">D39*1/364</f>
+        <f t="shared" ref="E39:E44" si="10">D39*1/364</f>
         <v>0.13736263736263737</v>
       </c>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>80</v>
       </c>
       <c r="E40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.21978021978021978</v>
       </c>
       <c r="L40">
@@ -3670,12 +6898,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>100</v>
       </c>
       <c r="E41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.27472527472527475</v>
       </c>
       <c r="L41">
@@ -3685,12 +6913,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>90</v>
       </c>
       <c r="E42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.24725274725274726</v>
       </c>
       <c r="L42">
@@ -3700,12 +6928,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>110</v>
       </c>
       <c r="E43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.30219780219780218</v>
       </c>
       <c r="L43">
@@ -3715,12 +6943,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>200</v>
       </c>
       <c r="E44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.5494505494505495</v>
       </c>
       <c r="L44">
@@ -3730,7 +6958,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
       <c r="L45">
         <v>3.2</v>
       </c>
@@ -3738,7 +6966,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
       <c r="L46">
         <v>2.1</v>
       </c>
@@ -3746,19 +6974,19 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.35">
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-    </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+    </row>
+    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
@@ -3779,7 +7007,7 @@
       <c r="Y52" s="12"/>
       <c r="AA52" s="12"/>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
@@ -3800,7 +7028,7 @@
       <c r="Y53" s="12"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
@@ -3821,7 +7049,7 @@
       <c r="Y54" s="12"/>
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
@@ -3842,11 +7070,11 @@
       <c r="Y55" s="12"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
       <c r="U57" s="10"/>
       <c r="V57" s="12"/>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
       <c r="U58" s="10"/>
       <c r="V58" s="12"/>
     </row>
@@ -3856,5 +7084,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>